--- a/tests/data/excel/measures_valid.xlsx
+++ b/tests/data/excel/measures_valid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hutschen/Repositories/mv-tool-fapi/tests/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hutschen/Repositories/mv-tool-fapi/tests/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB6D33-A2C2-284E-BB8D-70052CCD0238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC8D8B-D47A-D944-B36C-2D5A49254481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17000" xr2:uid="{11C4B917-36A0-4648-BAF7-1EAB0A0DEE5B}"/>
   </bookViews>
@@ -43,34 +43,34 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Requirement 1</t>
-  </si>
-  <si>
     <t>Description 1</t>
   </si>
   <si>
-    <t>Requirement 2</t>
-  </si>
-  <si>
     <t>Description 2</t>
   </si>
   <si>
-    <t>Requirement 3</t>
-  </si>
-  <si>
     <t>Description 3</t>
   </si>
   <si>
-    <t>Requirement 4</t>
-  </si>
-  <si>
     <t>Description 4</t>
   </si>
   <si>
-    <t>Requirement 5</t>
-  </si>
-  <si>
     <t>Description 5</t>
+  </si>
+  <si>
+    <t>Measure 1</t>
+  </si>
+  <si>
+    <t>Measure 2</t>
+  </si>
+  <si>
+    <t>Measure 3</t>
+  </si>
+  <si>
+    <t>Measure 4</t>
+  </si>
+  <si>
+    <t>Measure 5</t>
   </si>
 </sst>
 </file>
@@ -442,12 +442,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
@@ -466,42 +466,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
